--- a/BalanceUs - OK.xlsx
+++ b/BalanceUs - OK.xlsx
@@ -78,18 +78,21 @@
     <t>Transvaginal</t>
   </si>
   <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>celio gomes da silva almeida</t>
+  </si>
+  <si>
     <t>Próstata</t>
   </si>
   <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>celio gomes da silva almeida</t>
-  </si>
-  <si>
     <t>Órgãos superficiais</t>
   </si>
   <si>
+    <t>Doppler</t>
+  </si>
+  <si>
     <t>raquel messias muniz</t>
   </si>
   <si>
@@ -102,51 +105,51 @@
     <t>maria do socorro farias de queiroz</t>
   </si>
   <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>marineusa messias muniz</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>Gerusa</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>maria veronica mendes virginio</t>
+  </si>
+  <si>
+    <t>Embrapa</t>
+  </si>
+  <si>
+    <t>Unimed</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>adriana santos matias</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>afonso maciel da silva</t>
+  </si>
+  <si>
+    <t>Aparelho Urinário</t>
+  </si>
+  <si>
     <t>2020-07-17</t>
   </si>
   <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>marineusa messias muniz</t>
-  </si>
-  <si>
-    <t>2020-07-29</t>
-  </si>
-  <si>
-    <t>Gerusa</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>maria veronica mendes virginio</t>
-  </si>
-  <si>
-    <t>Embrapa</t>
-  </si>
-  <si>
-    <t>Unimed</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>adriana santos matias</t>
-  </si>
-  <si>
-    <t>Filme</t>
-  </si>
-  <si>
-    <t>2020-07-14</t>
-  </si>
-  <si>
-    <t>afonso maciel da silva</t>
-  </si>
-  <si>
-    <t>Aparelho Urinário</t>
-  </si>
-  <si>
     <t>ailda r f leandro</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
   </si>
   <si>
     <t>ana carolina feitosa de vasconcelos</t>
-  </si>
-  <si>
-    <t>Órgãos superficiais Com Doppler</t>
   </si>
   <si>
     <t>2020-06-30</t>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>123.44</v>
+        <v>180.74</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="n">
-        <v>180.74</v>
+        <v>111.85</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>111.85</v>
+        <v>84.96</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>84.96</v>
+        <v>245.74</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>84.96</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>96.57</v>
@@ -1326,22 +1326,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>96.57</v>
+        <v>106.63</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1349,13 +1349,13 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>106.63</v>
+        <v>107.69</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1369,13 +1369,13 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>107.69</v>
+        <v>84.96</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1389,13 +1389,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>84.96</v>
+        <v>245.74</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1409,10 +1409,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>84.96</v>
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>47.65</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>60.49</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>60.49</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -2178,10 +2178,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
         <v>60.49</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
         <v>60.49</v>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
         <v>105.61</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -2704,7 +2704,7 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
         <v>60.49</v>
@@ -2864,7 +2864,7 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
         <v>60.49</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
         <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="n">
         <v>47.65</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
         <v>64</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
         <v>66</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
         <v>67</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
         <v>67</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
         <v>67</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
         <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>60.49</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
         <v>68</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
         <v>68</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
         <v>68</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
@@ -3564,7 +3564,7 @@
         <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D103" t="n">
         <v>60.49</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D108" t="n">
         <v>50.4</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
         <v>71</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
         <v>71</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D110" t="n">
         <v>60.49</v>
@@ -4144,7 +4144,7 @@
         <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132" t="n">
         <v>60.49</v>
@@ -4224,7 +4224,7 @@
         <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D136" t="n">
         <v>105.61</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B138" t="s">
         <v>81</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
         <v>81</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B140" t="s">
         <v>81</v>
@@ -4318,13 +4318,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
         <v>81</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D141" t="n">
         <v>60.49</v>
@@ -4604,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D155" t="n">
         <v>60.49</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
         <v>92</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
         <v>92</v>
@@ -4818,13 +4818,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B166" t="s">
         <v>92</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D166" t="n">
         <v>105.61</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
         <v>92</v>
@@ -4904,7 +4904,7 @@
         <v>93</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D170" t="n">
         <v>60.49</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
         <v>94</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B173" t="s">
         <v>94</v>
@@ -4978,13 +4978,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B174" t="s">
         <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D174" t="n">
         <v>60.49</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B175" t="s">
         <v>94</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
         <v>95</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B177" t="s">
         <v>95</v>
@@ -5058,13 +5058,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
         <v>95</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D178" t="n">
         <v>60.49</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B179" t="s">
         <v>95</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B180" t="s">
         <v>95</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B181" t="s">
         <v>95</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B182" t="s">
         <v>95</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B183" t="s">
         <v>95</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B184" t="s">
         <v>95</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B185" t="s">
         <v>95</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
         <v>96</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s">
         <v>96</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
         <v>96</v>
@@ -5278,13 +5278,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s">
         <v>96</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D189" t="n">
         <v>60.49</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
         <v>96</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B191" t="s">
         <v>96</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B192" t="s">
         <v>96</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B193" t="s">
         <v>96</v>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D195" t="n">
         <v>60.49</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B205" t="s">
         <v>99</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B206" t="s">
         <v>99</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B207" t="s">
         <v>99</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B208" t="s">
         <v>99</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B209" t="s">
         <v>99</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B210" t="s">
         <v>99</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
         <v>99</v>
@@ -5738,13 +5738,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
         <v>99</v>
       </c>
       <c r="C212" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D212" t="n">
         <v>60.49</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
         <v>99</v>
@@ -5778,13 +5778,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B214" t="s">
         <v>99</v>
       </c>
       <c r="C214" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D214" t="n">
         <v>85.92</v>
@@ -5864,7 +5864,7 @@
         <v>100</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D218" t="n">
         <v>60.49</v>
@@ -5964,7 +5964,7 @@
         <v>101</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D223" t="n">
         <v>50.4</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B229" t="s">
         <v>103</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B230" t="s">
         <v>103</v>
@@ -6144,7 +6144,7 @@
         <v>104</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D232" t="n">
         <v>50.4</v>
@@ -6204,7 +6204,7 @@
         <v>105</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D235" t="n">
         <v>60.49</v>
@@ -6304,7 +6304,7 @@
         <v>107</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D240" t="n">
         <v>60.49</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
         <v>110</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
         <v>110</v>
@@ -6438,13 +6438,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
         <v>110</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D247" t="n">
         <v>50.4</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
         <v>110</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B249" t="s">
         <v>111</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B250" t="s">
         <v>111</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B251" t="s">
         <v>112</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B252" t="s">
         <v>112</v>
@@ -6558,13 +6558,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B253" t="s">
         <v>112</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D253" t="n">
         <v>60.49</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B254" t="s">
         <v>112</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B255" t="s">
         <v>112</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B256" t="s">
         <v>112</v>
@@ -6884,7 +6884,7 @@
         <v>117</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D269" t="n">
         <v>60.49</v>
@@ -7044,7 +7044,7 @@
         <v>118</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D277" t="n">
         <v>60.49</v>
@@ -7484,7 +7484,7 @@
         <v>123</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D299" t="n">
         <v>60.49</v>
@@ -7504,7 +7504,7 @@
         <v>123</v>
       </c>
       <c r="C300" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D300" t="n">
         <v>105.61</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B305" t="s">
         <v>126</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B306" t="s">
         <v>126</v>
@@ -7638,13 +7638,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B307" t="s">
         <v>126</v>
       </c>
       <c r="C307" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D307" t="n">
         <v>60.49</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B308" t="s">
         <v>126</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B309" t="s">
         <v>126</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B315" t="s">
         <v>128</v>
@@ -7818,13 +7818,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B316" t="s">
         <v>128</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D316" t="n">
         <v>120.98</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B317" t="s">
         <v>129</v>
@@ -7944,7 +7944,7 @@
         <v>129</v>
       </c>
       <c r="C322" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D322" t="n">
         <v>105.61</v>
@@ -8024,7 +8024,7 @@
         <v>130</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D326" t="n">
         <v>60.49</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B327" t="s">
         <v>131</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B328" t="s">
         <v>131</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B329" t="s">
         <v>131</v>
@@ -8098,13 +8098,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B330" t="s">
         <v>131</v>
       </c>
       <c r="C330" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D330" t="n">
         <v>50.4</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B331" t="s">
         <v>131</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B332" t="s">
         <v>131</v>
@@ -8244,7 +8244,7 @@
         <v>132</v>
       </c>
       <c r="C337" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D337" t="n">
         <v>50.4</v>
@@ -8304,7 +8304,7 @@
         <v>132</v>
       </c>
       <c r="C340" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D340" t="n">
         <v>85.92</v>
@@ -8364,7 +8364,7 @@
         <v>133</v>
       </c>
       <c r="C343" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D343" t="n">
         <v>47.65</v>
@@ -8464,7 +8464,7 @@
         <v>134</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D348" t="n">
         <v>50.4</v>
@@ -8584,7 +8584,7 @@
         <v>135</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D354" t="n">
         <v>60.49</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B355" t="s">
         <v>136</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B356" t="s">
         <v>136</v>
@@ -8684,7 +8684,7 @@
         <v>137</v>
       </c>
       <c r="C359" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D359" t="n">
         <v>105.61</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B363" t="s">
         <v>138</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B364" t="s">
         <v>138</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B365" t="s">
         <v>138</v>
@@ -8818,13 +8818,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B366" t="s">
         <v>138</v>
       </c>
       <c r="C366" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D366" t="n">
         <v>85.92</v>
@@ -8884,7 +8884,7 @@
         <v>139</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D369" t="n">
         <v>60.49</v>
@@ -9144,7 +9144,7 @@
         <v>140</v>
       </c>
       <c r="C382" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D382" t="n">
         <v>60.49</v>
@@ -9304,7 +9304,7 @@
         <v>141</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D390" t="n">
         <v>60.49</v>
@@ -9484,7 +9484,7 @@
         <v>142</v>
       </c>
       <c r="C399" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D399" t="n">
         <v>105.61</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B400" t="s">
         <v>143</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B401" t="s">
         <v>143</v>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B402" t="s">
         <v>143</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B403" t="s">
         <v>143</v>
@@ -9578,7 +9578,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B404" t="s">
         <v>143</v>
@@ -9598,13 +9598,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B405" t="s">
         <v>143</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D405" t="n">
         <v>60.49</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B406" t="s">
         <v>144</v>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B407" t="s">
         <v>144</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B408" t="s">
         <v>144</v>
@@ -9678,13 +9678,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B409" t="s">
         <v>144</v>
       </c>
       <c r="C409" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D409" t="n">
         <v>105.61</v>
@@ -9844,7 +9844,7 @@
         <v>145</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D417" t="n">
         <v>60.49</v>
@@ -10004,7 +10004,7 @@
         <v>146</v>
       </c>
       <c r="C425" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D425" t="n">
         <v>60.49</v>
@@ -10124,7 +10124,7 @@
         <v>147</v>
       </c>
       <c r="C431" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D431" t="n">
         <v>60.49</v>
@@ -10184,7 +10184,7 @@
         <v>148</v>
       </c>
       <c r="C434" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D434" t="n">
         <v>60.49</v>
@@ -10264,7 +10264,7 @@
         <v>149</v>
       </c>
       <c r="C438" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D438" t="n">
         <v>60.49</v>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B442" t="s">
         <v>151</v>
@@ -10358,7 +10358,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B443" t="s">
         <v>151</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B444" t="s">
         <v>152</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B445" t="s">
         <v>152</v>
@@ -10564,7 +10564,7 @@
         <v>154</v>
       </c>
       <c r="C453" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D453" t="n">
         <v>60.49</v>
@@ -10744,7 +10744,7 @@
         <v>155</v>
       </c>
       <c r="C462" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D462" t="n">
         <v>60.49</v>
@@ -10824,7 +10824,7 @@
         <v>156</v>
       </c>
       <c r="C466" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D466" t="n">
         <v>60.49</v>
@@ -10924,7 +10924,7 @@
         <v>157</v>
       </c>
       <c r="C471" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D471" t="n">
         <v>105.61</v>
@@ -11004,7 +11004,7 @@
         <v>158</v>
       </c>
       <c r="C475" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D475" t="n">
         <v>60.49</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B478" t="s">
         <v>159</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B479" t="s">
         <v>159</v>
@@ -11098,13 +11098,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B480" t="s">
         <v>159</v>
       </c>
       <c r="C480" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D480" t="n">
         <v>105.61</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B481" t="s">
         <v>159</v>
@@ -11204,7 +11204,7 @@
         <v>160</v>
       </c>
       <c r="C485" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D485" t="n">
         <v>60.49</v>
@@ -11304,7 +11304,7 @@
         <v>161</v>
       </c>
       <c r="C490" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D490" t="n">
         <v>47.65</v>
@@ -11444,7 +11444,7 @@
         <v>162</v>
       </c>
       <c r="C497" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D497" t="n">
         <v>60.49</v>
@@ -11584,7 +11584,7 @@
         <v>163</v>
       </c>
       <c r="C504" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D504" t="n">
         <v>50.4</v>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B506" t="s">
         <v>164</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B507" t="s">
         <v>164</v>
@@ -11784,7 +11784,7 @@
         <v>165</v>
       </c>
       <c r="C514" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D514" t="n">
         <v>60.49</v>
@@ -11964,7 +11964,7 @@
         <v>167</v>
       </c>
       <c r="C523" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D523" t="n">
         <v>60.49</v>
@@ -12044,7 +12044,7 @@
         <v>168</v>
       </c>
       <c r="C527" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D527" t="n">
         <v>50.4</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B530" t="s">
         <v>169</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B531" t="s">
         <v>169</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B532" t="s">
         <v>169</v>
@@ -12158,13 +12158,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B533" t="s">
         <v>169</v>
       </c>
       <c r="C533" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D533" t="n">
         <v>50.4</v>
@@ -12264,7 +12264,7 @@
         <v>170</v>
       </c>
       <c r="C538" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D538" t="n">
         <v>50.4</v>
@@ -12324,7 +12324,7 @@
         <v>170</v>
       </c>
       <c r="C541" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D541" t="n">
         <v>105.61</v>
@@ -12464,7 +12464,7 @@
         <v>171</v>
       </c>
       <c r="C548" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D548" t="n">
         <v>60.49</v>
@@ -12664,7 +12664,7 @@
         <v>172</v>
       </c>
       <c r="C558" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D558" t="n">
         <v>60.49</v>
@@ -12804,7 +12804,7 @@
         <v>173</v>
       </c>
       <c r="C565" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D565" t="n">
         <v>60.49</v>
@@ -12884,7 +12884,7 @@
         <v>174</v>
       </c>
       <c r="C569" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D569" t="n">
         <v>60.49</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B578" t="s">
         <v>176</v>
@@ -13078,7 +13078,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B579" t="s">
         <v>176</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B580" t="s">
         <v>176</v>
@@ -13118,7 +13118,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B581" t="s">
         <v>176</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B582" t="s">
         <v>176</v>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B583" t="s">
         <v>176</v>
@@ -13178,7 +13178,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B584" t="s">
         <v>176</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B585" t="s">
         <v>176</v>
@@ -13304,7 +13304,7 @@
         <v>177</v>
       </c>
       <c r="C590" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D590" t="n">
         <v>60.49</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B598" t="s">
         <v>180</v>
@@ -13478,7 +13478,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B599" t="s">
         <v>180</v>
@@ -13564,7 +13564,7 @@
         <v>182</v>
       </c>
       <c r="C603" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D603" t="n">
         <v>60.49</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B608" t="s">
         <v>184</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B609" t="s">
         <v>184</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B612" t="s">
         <v>186</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B613" t="s">
         <v>186</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B614" t="s">
         <v>186</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B615" t="s">
         <v>186</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B616" t="s">
         <v>187</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B617" t="s">
         <v>187</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B618" t="s">
         <v>187</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B619" t="s">
         <v>187</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B620" t="s">
         <v>187</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B621" t="s">
         <v>187</v>
@@ -13938,7 +13938,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B622" t="s">
         <v>187</v>
@@ -13964,7 +13964,7 @@
         <v>187</v>
       </c>
       <c r="C623" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D623" t="n">
         <v>60.49</v>
@@ -14044,7 +14044,7 @@
         <v>187</v>
       </c>
       <c r="C627" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D627" t="n">
         <v>105.61</v>
@@ -14184,7 +14184,7 @@
         <v>188</v>
       </c>
       <c r="C634" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D634" t="n">
         <v>60.49</v>
@@ -14484,7 +14484,7 @@
         <v>191</v>
       </c>
       <c r="C649" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D649" t="n">
         <v>105.61</v>
@@ -14564,7 +14564,7 @@
         <v>192</v>
       </c>
       <c r="C653" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D653" t="n">
         <v>60.49</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B654" t="s">
         <v>193</v>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B655" t="s">
         <v>193</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B656" t="s">
         <v>193</v>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B657" t="s">
         <v>193</v>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B658" t="s">
         <v>193</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B659" t="s">
         <v>193</v>
@@ -14784,7 +14784,7 @@
         <v>194</v>
       </c>
       <c r="C664" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D664" t="n">
         <v>60.49</v>
@@ -14884,7 +14884,7 @@
         <v>194</v>
       </c>
       <c r="C669" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D669" t="n">
         <v>60.49</v>
@@ -15084,7 +15084,7 @@
         <v>197</v>
       </c>
       <c r="C679" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D679" t="n">
         <v>60.49</v>
@@ -15138,7 +15138,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B682" t="s">
         <v>199</v>
@@ -15158,7 +15158,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B683" t="s">
         <v>199</v>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B684" t="s">
         <v>199</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B685" t="s">
         <v>199</v>
@@ -15218,7 +15218,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B686" t="s">
         <v>199</v>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B687" t="s">
         <v>199</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B688" t="s">
         <v>199</v>
@@ -15278,13 +15278,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B689" t="s">
         <v>199</v>
       </c>
       <c r="C689" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D689" t="n">
         <v>105.61</v>
@@ -15298,7 +15298,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B690" t="s">
         <v>199</v>
@@ -15318,7 +15318,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B691" t="s">
         <v>199</v>
@@ -15338,7 +15338,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B692" t="s">
         <v>199</v>
@@ -15358,13 +15358,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B693" t="s">
         <v>199</v>
       </c>
       <c r="C693" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D693" t="n">
         <v>60.49</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B694" t="s">
         <v>200</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B695" t="s">
         <v>200</v>
@@ -15604,7 +15604,7 @@
         <v>201</v>
       </c>
       <c r="C705" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D705" t="n">
         <v>60.49</v>
@@ -15744,7 +15744,7 @@
         <v>203</v>
       </c>
       <c r="C712" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D712" t="n">
         <v>60.49</v>
@@ -15844,7 +15844,7 @@
         <v>204</v>
       </c>
       <c r="C717" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D717" t="n">
         <v>60.49</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B718" t="s">
         <v>205</v>
@@ -15878,7 +15878,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B719" t="s">
         <v>205</v>
@@ -15898,7 +15898,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B720" t="s">
         <v>205</v>
@@ -15918,13 +15918,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B721" t="s">
         <v>205</v>
       </c>
       <c r="C721" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D721" t="n">
         <v>60.49</v>
@@ -15938,7 +15938,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B722" t="s">
         <v>205</v>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B723" t="s">
         <v>205</v>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B724" t="s">
         <v>206</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B725" t="s">
         <v>206</v>
@@ -16224,7 +16224,7 @@
         <v>209</v>
       </c>
       <c r="C736" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D736" t="n">
         <v>60.49</v>
@@ -16284,7 +16284,7 @@
         <v>210</v>
       </c>
       <c r="C739" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D739" t="n">
         <v>60.49</v>
@@ -16358,7 +16358,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B743" t="s">
         <v>212</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B744" t="s">
         <v>212</v>
@@ -16398,7 +16398,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B745" t="s">
         <v>212</v>
@@ -16418,7 +16418,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B746" t="s">
         <v>212</v>
@@ -16564,7 +16564,7 @@
         <v>213</v>
       </c>
       <c r="C753" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D753" t="n">
         <v>60.49</v>
@@ -16644,7 +16644,7 @@
         <v>214</v>
       </c>
       <c r="C757" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D757" t="n">
         <v>60.49</v>
@@ -16744,7 +16744,7 @@
         <v>215</v>
       </c>
       <c r="C762" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D762" t="n">
         <v>60.49</v>
@@ -16844,7 +16844,7 @@
         <v>216</v>
       </c>
       <c r="C767" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D767" t="n">
         <v>60.49</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B771" t="s">
         <v>218</v>
@@ -16938,7 +16938,7 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B772" t="s">
         <v>218</v>
@@ -16958,7 +16958,7 @@
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B773" t="s">
         <v>218</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B774" t="s">
         <v>218</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B775" t="s">
         <v>218</v>
@@ -17018,13 +17018,13 @@
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B776" t="s">
         <v>218</v>
       </c>
       <c r="C776" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D776" t="n">
         <v>60.49</v>
@@ -17204,7 +17204,7 @@
         <v>221</v>
       </c>
       <c r="C785" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D785" t="n">
         <v>60.49</v>
@@ -17304,7 +17304,7 @@
         <v>222</v>
       </c>
       <c r="C790" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D790" t="n">
         <v>60.49</v>
@@ -17444,7 +17444,7 @@
         <v>223</v>
       </c>
       <c r="C797" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D797" t="n">
         <v>60.49</v>
@@ -17504,7 +17504,7 @@
         <v>223</v>
       </c>
       <c r="C800" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D800" t="n">
         <v>60.49</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B807" t="s">
         <v>225</v>
@@ -17658,7 +17658,7 @@
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B808" t="s">
         <v>225</v>
@@ -17678,7 +17678,7 @@
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B809" t="s">
         <v>226</v>
@@ -17698,7 +17698,7 @@
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B810" t="s">
         <v>226</v>
@@ -17718,7 +17718,7 @@
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B811" t="s">
         <v>226</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B812" t="s">
         <v>226</v>
@@ -17844,7 +17844,7 @@
         <v>227</v>
       </c>
       <c r="C817" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D817" t="n">
         <v>60.49</v>
@@ -17924,7 +17924,7 @@
         <v>227</v>
       </c>
       <c r="C821" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D821" t="n">
         <v>105.61</v>
@@ -18004,7 +18004,7 @@
         <v>228</v>
       </c>
       <c r="C825" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D825" t="n">
         <v>60.49</v>
@@ -18104,7 +18104,7 @@
         <v>229</v>
       </c>
       <c r="C830" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D830" t="n">
         <v>60.49</v>
@@ -18144,7 +18144,7 @@
         <v>230</v>
       </c>
       <c r="C832" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D832" t="n">
         <v>60.49</v>
@@ -18204,7 +18204,7 @@
         <v>231</v>
       </c>
       <c r="C835" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D835" t="n">
         <v>50.4</v>
@@ -18238,7 +18238,7 @@
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B837" t="s">
         <v>232</v>
@@ -18258,7 +18258,7 @@
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B838" t="s">
         <v>232</v>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B839" t="s">
         <v>232</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B840" t="s">
         <v>232</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B841" t="s">
         <v>232</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="842">
       <c r="A842" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B842" t="s">
         <v>232</v>
@@ -18424,7 +18424,7 @@
         <v>233</v>
       </c>
       <c r="C846" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D846" t="n">
         <v>50.4</v>
@@ -18478,7 +18478,7 @@
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B849" t="s">
         <v>235</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B850" t="s">
         <v>235</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B851" t="s">
         <v>235</v>
@@ -18538,7 +18538,7 @@
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B852" t="s">
         <v>235</v>
@@ -18558,7 +18558,7 @@
     </row>
     <row r="853">
       <c r="A853" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B853" t="s">
         <v>235</v>
@@ -18578,7 +18578,7 @@
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B854" t="s">
         <v>235</v>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B855" t="s">
         <v>235</v>
@@ -18618,13 +18618,13 @@
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B856" t="s">
         <v>235</v>
       </c>
       <c r="C856" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D856" t="n">
         <v>60.49</v>
@@ -18684,7 +18684,7 @@
         <v>236</v>
       </c>
       <c r="C859" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D859" t="n">
         <v>60.49</v>
@@ -18864,7 +18864,7 @@
         <v>239</v>
       </c>
       <c r="C868" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D868" t="n">
         <v>60.49</v>
@@ -18984,7 +18984,7 @@
         <v>241</v>
       </c>
       <c r="C874" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D874" t="n">
         <v>60.49</v>
@@ -19064,7 +19064,7 @@
         <v>242</v>
       </c>
       <c r="C878" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D878" t="n">
         <v>60.49</v>
@@ -19164,7 +19164,7 @@
         <v>243</v>
       </c>
       <c r="C883" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D883" t="n">
         <v>60.49</v>
@@ -19238,7 +19238,7 @@
     </row>
     <row r="887">
       <c r="A887" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B887" t="s">
         <v>244</v>
@@ -19258,7 +19258,7 @@
     </row>
     <row r="888">
       <c r="A888" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B888" t="s">
         <v>244</v>
@@ -19278,7 +19278,7 @@
     </row>
     <row r="889">
       <c r="A889" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B889" t="s">
         <v>244</v>
@@ -19298,13 +19298,13 @@
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B890" t="s">
         <v>244</v>
       </c>
       <c r="C890" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D890" t="n">
         <v>50.4</v>
@@ -19444,7 +19444,7 @@
         <v>246</v>
       </c>
       <c r="C897" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D897" t="n">
         <v>60.49</v>
@@ -19518,7 +19518,7 @@
     </row>
     <row r="901">
       <c r="A901" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B901" t="s">
         <v>247</v>
@@ -19538,7 +19538,7 @@
     </row>
     <row r="902">
       <c r="A902" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B902" t="s">
         <v>247</v>
@@ -19558,7 +19558,7 @@
     </row>
     <row r="903">
       <c r="A903" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B903" t="s">
         <v>247</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="904">
       <c r="A904" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B904" t="s">
         <v>247</v>
@@ -19598,7 +19598,7 @@
     </row>
     <row r="905">
       <c r="A905" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B905" t="s">
         <v>248</v>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="906">
       <c r="A906" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B906" t="s">
         <v>248</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="907">
       <c r="A907" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B907" t="s">
         <v>248</v>
@@ -19658,7 +19658,7 @@
     </row>
     <row r="908">
       <c r="A908" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B908" t="s">
         <v>248</v>
@@ -19678,7 +19678,7 @@
     </row>
     <row r="909">
       <c r="A909" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B909" t="s">
         <v>248</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="910">
       <c r="A910" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B910" t="s">
         <v>248</v>
@@ -19718,7 +19718,7 @@
     </row>
     <row r="911">
       <c r="A911" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B911" t="s">
         <v>248</v>
@@ -19738,7 +19738,7 @@
     </row>
     <row r="912">
       <c r="A912" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B912" t="s">
         <v>248</v>
@@ -19758,7 +19758,7 @@
     </row>
     <row r="913">
       <c r="A913" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B913" t="s">
         <v>248</v>
@@ -19778,13 +19778,13 @@
     </row>
     <row r="914">
       <c r="A914" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B914" t="s">
         <v>248</v>
       </c>
       <c r="C914" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D914" t="n">
         <v>60.49</v>
@@ -19878,7 +19878,7 @@
     </row>
     <row r="919">
       <c r="A919" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B919" t="s">
         <v>250</v>
@@ -19898,7 +19898,7 @@
     </row>
     <row r="920">
       <c r="A920" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B920" t="s">
         <v>250</v>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="921">
       <c r="A921" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B921" t="s">
         <v>250</v>
@@ -19938,13 +19938,13 @@
     </row>
     <row r="922">
       <c r="A922" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B922" t="s">
         <v>250</v>
       </c>
       <c r="C922" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D922" t="n">
         <v>60.49</v>
@@ -20284,7 +20284,7 @@
         <v>252</v>
       </c>
       <c r="C939" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D939" t="n">
         <v>60.49</v>
@@ -20404,7 +20404,7 @@
         <v>253</v>
       </c>
       <c r="C945" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D945" t="n">
         <v>60.49</v>
@@ -20504,7 +20504,7 @@
         <v>254</v>
       </c>
       <c r="C950" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D950" t="n">
         <v>60.49</v>
@@ -20538,7 +20538,7 @@
     </row>
     <row r="952">
       <c r="A952" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B952" t="s">
         <v>255</v>
@@ -20558,7 +20558,7 @@
     </row>
     <row r="953">
       <c r="A953" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B953" t="s">
         <v>255</v>
@@ -20578,7 +20578,7 @@
     </row>
     <row r="954">
       <c r="A954" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B954" t="s">
         <v>255</v>
@@ -20598,7 +20598,7 @@
     </row>
     <row r="955">
       <c r="A955" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B955" t="s">
         <v>255</v>
@@ -20618,7 +20618,7 @@
     </row>
     <row r="956">
       <c r="A956" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B956" t="s">
         <v>255</v>
@@ -20638,13 +20638,13 @@
     </row>
     <row r="957">
       <c r="A957" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B957" t="s">
         <v>255</v>
       </c>
       <c r="C957" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D957" t="n">
         <v>60.49</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="958">
       <c r="A958" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B958" t="s">
         <v>255</v>
@@ -20678,7 +20678,7 @@
     </row>
     <row r="959">
       <c r="A959" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B959" t="s">
         <v>255</v>
@@ -20838,7 +20838,7 @@
     </row>
     <row r="967">
       <c r="A967" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B967" t="s">
         <v>257</v>
@@ -20858,7 +20858,7 @@
     </row>
     <row r="968">
       <c r="A968" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B968" t="s">
         <v>257</v>
@@ -20878,13 +20878,13 @@
     </row>
     <row r="969">
       <c r="A969" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B969" t="s">
         <v>257</v>
       </c>
       <c r="C969" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D969" t="n">
         <v>60.49</v>
@@ -20898,7 +20898,7 @@
     </row>
     <row r="970">
       <c r="A970" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B970" t="s">
         <v>257</v>
@@ -21084,7 +21084,7 @@
         <v>258</v>
       </c>
       <c r="C979" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D979" t="n">
         <v>60.49</v>
@@ -21164,7 +21164,7 @@
         <v>259</v>
       </c>
       <c r="C983" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D983" t="n">
         <v>60.49</v>
@@ -21304,7 +21304,7 @@
         <v>260</v>
       </c>
       <c r="C990" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D990" t="n">
         <v>60.49</v>
@@ -21358,7 +21358,7 @@
     </row>
     <row r="993">
       <c r="A993" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B993" t="s">
         <v>262</v>
@@ -21378,13 +21378,13 @@
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B994" t="s">
         <v>262</v>
       </c>
       <c r="C994" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D994" t="n">
         <v>60.49</v>
@@ -21544,7 +21544,7 @@
         <v>264</v>
       </c>
       <c r="C1002" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1002" t="n">
         <v>60.49</v>
@@ -21558,7 +21558,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1003" t="s">
         <v>265</v>
@@ -21578,7 +21578,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1004" t="s">
         <v>265</v>
@@ -21598,7 +21598,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1005" t="s">
         <v>265</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1006" t="s">
         <v>265</v>
@@ -21638,7 +21638,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1007" t="s">
         <v>265</v>
@@ -21658,7 +21658,7 @@
     </row>
     <row r="1008">
       <c r="A1008" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1008" t="s">
         <v>265</v>
@@ -21678,13 +21678,13 @@
     </row>
     <row r="1009">
       <c r="A1009" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1009" t="s">
         <v>265</v>
       </c>
       <c r="C1009" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1009" t="n">
         <v>60.49</v>
@@ -21698,7 +21698,7 @@
     </row>
     <row r="1010">
       <c r="A1010" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1010" t="s">
         <v>265</v>
@@ -21718,7 +21718,7 @@
     </row>
     <row r="1011">
       <c r="A1011" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1011" t="s">
         <v>266</v>
@@ -21738,7 +21738,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1012" t="s">
         <v>266</v>
@@ -21804,7 +21804,7 @@
         <v>267</v>
       </c>
       <c r="C1015" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1015" t="n">
         <v>60.49</v>
@@ -21884,7 +21884,7 @@
         <v>268</v>
       </c>
       <c r="C1019" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1019" t="n">
         <v>60.49</v>
@@ -21984,7 +21984,7 @@
         <v>269</v>
       </c>
       <c r="C1024" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1024" t="n">
         <v>50.4</v>
@@ -22064,7 +22064,7 @@
         <v>270</v>
       </c>
       <c r="C1028" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1028" t="n">
         <v>60.49</v>
@@ -22104,7 +22104,7 @@
         <v>270</v>
       </c>
       <c r="C1030" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D1030" t="n">
         <v>105.61</v>
@@ -22118,7 +22118,7 @@
     </row>
     <row r="1031">
       <c r="A1031" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B1031" t="s">
         <v>271</v>
@@ -22138,7 +22138,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B1032" t="s">
         <v>271</v>
@@ -22158,13 +22158,13 @@
     </row>
     <row r="1033">
       <c r="A1033" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B1033" t="s">
         <v>271</v>
       </c>
       <c r="C1033" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1033" t="n">
         <v>60.49</v>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B1034" t="s">
         <v>271</v>
@@ -22198,7 +22198,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1035" t="s">
         <v>272</v>
@@ -22218,7 +22218,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1036" t="s">
         <v>272</v>
@@ -22238,7 +22238,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1037" t="s">
         <v>272</v>
@@ -22258,7 +22258,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1038" t="s">
         <v>272</v>
@@ -22404,7 +22404,7 @@
         <v>273</v>
       </c>
       <c r="C1045" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1045" t="n">
         <v>60.49</v>
@@ -22644,7 +22644,7 @@
         <v>276</v>
       </c>
       <c r="C1057" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1057" t="n">
         <v>60.49</v>
@@ -22758,7 +22758,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1063" t="s">
         <v>278</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="1064">
       <c r="A1064" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1064" t="s">
         <v>278</v>
@@ -22798,7 +22798,7 @@
     </row>
     <row r="1065">
       <c r="A1065" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1065" t="s">
         <v>278</v>
@@ -22818,7 +22818,7 @@
     </row>
     <row r="1066">
       <c r="A1066" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1066" t="s">
         <v>278</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1067" t="s">
         <v>278</v>
@@ -22864,7 +22864,7 @@
         <v>278</v>
       </c>
       <c r="C1068" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1068" t="n">
         <v>60.49</v>
